--- a/score.xlsx
+++ b/score.xlsx
@@ -9,7 +9,7 @@
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -425,8 +425,8 @@
   </sheetPr>
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -463,7 +463,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -485,6 +485,11 @@
           <t>1130502</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -494,7 +499,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -506,7 +511,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -518,7 +523,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -528,6 +533,11 @@
           <t>1130508</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>1130509</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -544,7 +559,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -556,7 +571,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -568,7 +583,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -580,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>71</t>
         </is>
       </c>
     </row>
@@ -604,7 +619,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -616,7 +631,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -628,7 +643,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -640,7 +655,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -652,7 +667,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -664,7 +679,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -676,7 +691,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -688,7 +703,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -698,6 +713,11 @@
           <t>1130527</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -707,7 +727,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -719,7 +739,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -743,7 +763,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -755,7 +775,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -765,6 +785,11 @@
           <t>1130533</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -774,7 +799,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -786,7 +811,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -798,7 +823,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -822,7 +847,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -846,7 +871,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -858,7 +883,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -870,7 +895,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -882,7 +907,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -894,7 +919,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -906,7 +931,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -918,7 +943,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -930,7 +955,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -942,7 +967,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -954,7 +979,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -966,7 +991,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -978,7 +1003,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -990,7 +1015,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1027,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1039,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1051,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1063,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1075,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1087,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1099,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1111,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1123,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1135,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1147,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1159,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1171,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1183,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1195,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>15</t>
         </is>
       </c>
     </row>

--- a/score.xlsx
+++ b/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70640\Documents\GitHub\tzulun-s-corner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AA6F19-D19C-46EB-8265-5EEFBD34DE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1921938E-06BB-4B32-A85B-5EB320DE9C13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
   <si>
     <t>1090574</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>1100643</t>
   </si>
   <si>
     <t>1123832</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>1130501</t>
   </si>
   <si>
     <t>1130502</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>1130503</t>
   </si>
   <si>
@@ -46,15 +55,24 @@
     <t>1130507</t>
   </si>
   <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>1130508</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>1130509</t>
   </si>
   <si>
     <t>1130510</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>1130511</t>
   </si>
   <si>
@@ -64,9 +82,15 @@
     <t>1130513</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>1130514</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>1130517</t>
   </si>
   <si>
@@ -85,6 +109,9 @@
     <t>1130524</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>1130525</t>
   </si>
   <si>
@@ -112,15 +139,24 @@
     <t>1130533</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
     <t>1130534</t>
   </si>
   <si>
     <t>1130535</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>1130536</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>1130537</t>
   </si>
   <si>
@@ -133,6 +169,9 @@
     <t>1130540</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>1130541</t>
   </si>
   <si>
@@ -161,6 +200,9 @@
   </si>
   <si>
     <t>1130552</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
   <si>
     <t>1130554</t>
@@ -562,332 +604,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/score.xlsx
+++ b/score.xlsx
@@ -425,8 +425,8 @@
   </sheetPr>
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -458,7 +458,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -523,11 +523,6 @@
           <t>1130508</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -535,11 +530,6 @@
           <t>1130509</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -549,7 +539,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -561,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -573,7 +563,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -597,7 +587,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -609,7 +599,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -621,7 +611,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -631,11 +621,6 @@
           <t>1130521</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -645,7 +630,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -657,7 +642,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -669,7 +654,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -681,7 +666,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -693,7 +678,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -717,7 +702,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -729,7 +714,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -753,7 +738,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -765,7 +750,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -775,11 +760,6 @@
           <t>1130533</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -789,7 +769,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -801,7 +781,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -811,11 +791,6 @@
           <t>1130536</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -825,7 +800,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -837,7 +812,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -849,7 +824,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -861,7 +836,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -873,7 +848,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -885,7 +860,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -897,7 +872,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -909,7 +884,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -933,7 +908,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -945,7 +920,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -957,7 +932,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -969,7 +944,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -981,7 +956,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -993,7 +968,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1005,7 +980,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1017,7 +992,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1004,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1016,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1028,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1040,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1052,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1087,6 +1062,11 @@
           <t>1130562</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1096,7 +1076,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1106,11 +1086,6 @@
           <t>1130565</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1120,7 +1095,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1107,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1131,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1143,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1155,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>70</t>
         </is>
       </c>
     </row>

--- a/score.xlsx
+++ b/score.xlsx
@@ -1,61 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70640\Documents\GitHub\tzulun-s-corner\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E756BA-A22B-4705-981D-7F426BC662AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="DFKai-SB"/>
+      <charset val="136"/>
+      <family val="4"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DFKai-SB"/>
-      <family val="4"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -93,32 +85,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -384,778 +456,2266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection sqref="A1:A152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A1" s="1">
+    <row r="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="n">
         <v>1100451</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A2" s="2">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>齋藤伶朗</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="n">
         <v>1100453</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A3" s="2">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>松永佳憲</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A3" s="2" t="n">
         <v>1100572</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A4" s="2">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>莊秉樺</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A4" s="2" t="n">
         <v>1100643</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A5" s="2">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>林昱豪</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A5" s="2" t="n">
         <v>1103713</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A6" s="2">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>戴敬倫</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A6" s="2" t="n">
         <v>1103745</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A7" s="2">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>陳菲娜</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A7" s="2" t="n">
         <v>1110523</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A8" s="2">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>林宥任</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="2" t="n">
         <v>1110673</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A9" s="2">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>王上恩</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A9" s="2" t="n">
         <v>1113716</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A10" s="2">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>吳楷奕</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A10" s="2" t="n">
         <v>1113717</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A11" s="2">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>石孟鑫</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A11" s="2" t="n">
         <v>1113719</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A12" s="2">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>林育暐</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A12" s="2" t="n">
         <v>1120343</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A13" s="2">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>顏光佑</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A13" s="2" t="n">
+        <v>1120362</v>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>嚴聿祥</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A14" s="2" t="n">
+        <v>1120363</v>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>彭宥崴</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A15" s="2" t="n">
         <v>1120364</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A14" s="2">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>簡廷軒</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A16" s="2" t="n">
         <v>1120403</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A15" s="2">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>許慶霖</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A17" s="2" t="n">
+        <v>1120463</v>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>李冠昌</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A18" s="2" t="n">
         <v>1120501</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A16" s="2">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>鍾秉祐</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A19" s="2" t="n">
         <v>1120502</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A17" s="2">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>廖冠宇</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A20" s="2" t="n">
         <v>1120504</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A18" s="2">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>李詠潔</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A21" s="2" t="n">
         <v>1120505</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A19" s="2">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>許郁巧</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A22" s="2" t="n">
         <v>1120506</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A20" s="2">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>林瑋宸</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A23" s="2" t="n">
         <v>1120507</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A21" s="2">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>李冠呈</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A24" s="2" t="n">
         <v>1120508</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A22" s="2">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>朱祐麟</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A25" s="2" t="n">
         <v>1120509</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A23" s="2">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>何少勤</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A26" s="2" t="n">
         <v>1120510</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A24" s="2">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>林均諺</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A27" s="2" t="n">
         <v>1120512</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A25" s="2">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>彭韋霖</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A28" s="2" t="n">
         <v>1120513</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A26" s="2">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>余承晏</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A29" s="2" t="n">
         <v>1120515</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A27" s="2">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>李睿文</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A30" s="2" t="n">
         <v>1120516</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A28" s="2">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>陳妍儒</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A31" s="2" t="n">
         <v>1120517</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A29" s="2">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>楊凱毅</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A32" s="2" t="n">
         <v>1120518</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A30" s="2">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>金昀陞</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A33" s="2" t="n">
         <v>1120520</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A31" s="2">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>何怡儒</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A34" s="2" t="n">
         <v>1120522</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A32" s="2">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>陳世禾</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A35" s="2" t="n">
         <v>1120524</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A33" s="2">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>林語柔</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A36" s="2" t="n">
         <v>1120525</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A34" s="2">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>林俊价</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A37" s="2" t="n">
         <v>1120526</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A35" s="2">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>吳諺則</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A38" s="2" t="n">
         <v>1120527</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A36" s="2">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>王苡倢</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A39" s="2" t="n">
         <v>1120528</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A37" s="2">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>鍾維哲</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A40" s="2" t="n">
         <v>1120530</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A38" s="2">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>楊子嫻</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A41" s="2" t="n">
         <v>1120531</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A39" s="2">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>王政閔</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A42" s="2" t="n">
         <v>1120532</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A40" s="2">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>周秉融</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A43" s="2" t="n">
         <v>1120533</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A41" s="2">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>黃若語</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A44" s="2" t="n">
         <v>1120534</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A42" s="2">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>康捷評</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A45" s="2" t="n">
         <v>1120537</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A43" s="2">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>殷啓譽</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A46" s="2" t="n">
         <v>1120538</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A44" s="2">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>白少華</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A47" s="2" t="n">
         <v>1120540</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A45" s="2">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>周榆傑</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A48" s="2" t="n">
         <v>1120541</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A46" s="2">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>陳威廷</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A49" s="2" t="n">
         <v>1120542</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A47" s="2">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>周祐辰</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A50" s="2" t="n">
         <v>1120544</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A48" s="2">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>詹瀚捷</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A51" s="2" t="n">
         <v>1120545</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A49" s="2">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>謝孟煒</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A52" s="2" t="n">
         <v>1120546</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A50" s="2">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>林柏翰</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A53" s="2" t="n">
         <v>1120547</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A51" s="2">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>陳信軒</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A54" s="2" t="n">
         <v>1120548</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A52" s="2">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>洪宗佑</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A55" s="2" t="n">
         <v>1120549</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A53" s="2">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>羅冠傑</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A56" s="2" t="n">
         <v>1120550</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A54" s="2">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>高鳴鴻</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A57" s="2" t="n">
         <v>1120551</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A55" s="2">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>劉晉成</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A58" s="2" t="n">
         <v>1120552</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A56" s="2">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>尤柏勛</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A59" s="2" t="n">
         <v>1120553</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A57" s="2">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>陳楷鈞</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A60" s="2" t="n">
         <v>1120554</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A58" s="2">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>黃嘉立</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A61" s="2" t="n">
         <v>1120555</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A59" s="2">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>邱翊承</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A62" s="2" t="n">
         <v>1120556</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A60" s="2">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>高知瑋</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A63" s="2" t="n">
         <v>1120557</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A61" s="2">
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>陳品妤</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A64" s="2" t="n">
         <v>1120558</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A62" s="2">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>宋承龍</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A65" s="2" t="n">
         <v>1120559</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A63" s="2">
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>楊壹峰</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A66" s="2" t="n">
         <v>1120560</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A64" s="2">
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>吳秉融</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A67" s="2" t="n">
         <v>1120561</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A65" s="2">
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>鍾瑋宸</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A68" s="2" t="n">
         <v>1120562</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A66" s="2">
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>鄭維哲</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A69" s="2" t="n">
         <v>1120563</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A67" s="2">
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>吳鑑航</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A70" s="2" t="n">
         <v>1120564</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A68" s="2">
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>邱　舷</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A71" s="2" t="n">
         <v>1120565</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A69" s="2">
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>陳逸宇</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A72" s="2" t="n">
         <v>1120566</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A70" s="2">
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>張少華</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A73" s="2" t="n">
         <v>1120567</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A71" s="2">
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>彭冠瑀</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A74" s="2" t="n">
         <v>1120569</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A72" s="2">
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>江峻亦</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A75" s="2" t="n">
         <v>1120570</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A73" s="2">
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>張紫珊</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A76" s="2" t="n">
         <v>1120571</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A74" s="2">
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>林冠緯</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A77" s="2" t="n">
         <v>1120572</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A75" s="2">
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>呂孟澤</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A78" s="2" t="n">
         <v>1120573</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A76" s="2">
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>王洪偉</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A79" s="2" t="n">
         <v>1120574</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A77" s="2">
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>江嘉元</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A80" s="2" t="n">
         <v>1120575</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A78" s="2">
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>洪啟原</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A81" s="2" t="n">
         <v>1120602</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A79" s="2">
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>劉杰璁</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A82" s="2" t="n">
         <v>1120603</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A80" s="2">
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>陳昱齊</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A83" s="2" t="n">
         <v>1120604</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A81" s="2">
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>謝政宏</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A84" s="2" t="n">
         <v>1120605</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A82" s="2">
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>湯斯淇</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A85" s="2" t="n">
         <v>1120606</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A83" s="2">
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>康令澄</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A86" s="2" t="n">
         <v>1120607</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A84" s="2">
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>魯永喆</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A87" s="2" t="n">
         <v>1120608</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A85" s="2">
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>黎嘉鈞</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A88" s="2" t="n">
         <v>1120611</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A86" s="2">
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>林至賢</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A89" s="2" t="n">
         <v>1120613</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A87" s="2">
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>葉虹翎</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A90" s="2" t="n">
         <v>1120615</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A88" s="2">
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>程韋綸</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A91" s="2" t="n">
         <v>1120616</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A89" s="2">
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>李元捷</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A92" s="2" t="n">
         <v>1120618</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A90" s="2">
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>張晉瑋</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A93" s="2" t="n">
         <v>1120619</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A91" s="2">
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>廖晨羽</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A94" s="2" t="n">
         <v>1120620</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A92" s="2">
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>張祐毓</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A95" s="2" t="n">
         <v>1120621</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A93" s="2">
+      <c r="B95" s="4" t="inlineStr">
+        <is>
+          <t>陳力瑋</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A96" s="2" t="n">
         <v>1120622</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A94" s="2">
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>黃于僑</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A97" s="2" t="n">
         <v>1120623</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A95" s="2">
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>林坊宸</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A98" s="2" t="n">
         <v>1120625</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A96" s="2">
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t>劉育廷</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A99" s="2" t="n">
         <v>1120627</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A97" s="2">
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t>吳曜均</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A100" s="2" t="n">
         <v>1120628</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A98" s="2">
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>陳姿妘</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A101" s="2" t="n">
         <v>1120629</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A99" s="2">
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t>簡宇婕</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A102" s="2" t="n">
         <v>1120630</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A100" s="2">
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>周羿帆</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A103" s="2" t="n">
         <v>1120631</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A101" s="2">
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t>蔡坤霖</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A104" s="2" t="n">
         <v>1120632</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A102" s="2">
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t>周珊羽</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A105" s="2" t="n">
         <v>1120633</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A103" s="2">
+      <c r="B105" s="4" t="inlineStr">
+        <is>
+          <t>陳惠芳</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A106" s="2" t="n">
         <v>1120634</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A104" s="2">
+      <c r="B106" s="4" t="inlineStr">
+        <is>
+          <t>郭秉翰</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A107" s="2" t="n">
         <v>1120635</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A105" s="2">
+      <c r="B107" s="4" t="inlineStr">
+        <is>
+          <t>張景謙</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A108" s="2" t="n">
         <v>1120636</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A106" s="2">
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>單睿中</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A109" s="2" t="n">
         <v>1120637</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A107" s="2">
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t>彭彥華</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A110" s="2" t="n">
         <v>1120638</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A108" s="2">
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>洪嬿濡</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A111" s="2" t="n">
         <v>1120639</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A109" s="2">
+      <c r="B111" s="4" t="inlineStr">
+        <is>
+          <t>劉全訓</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A112" s="2" t="n">
         <v>1120640</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A110" s="2">
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>周冠廷</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A113" s="2" t="n">
         <v>1120641</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A111" s="2">
+      <c r="B113" s="4" t="inlineStr">
+        <is>
+          <t>陳立恩</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A114" s="2" t="n">
         <v>1120642</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A112" s="2">
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>呂奕璇</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A115" s="2" t="n">
         <v>1120643</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A113" s="2">
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>張瑋哲</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A116" s="2" t="n">
         <v>1120644</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A114" s="2">
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>盧培豐</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A117" s="2" t="n">
         <v>1120645</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A115" s="2">
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t>項文誠</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A118" s="2" t="n">
         <v>1120646</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A116" s="2">
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>曾泓縉</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A119" s="2" t="n">
         <v>1120647</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A117" s="2">
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>徐正寶</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A120" s="2" t="n">
         <v>1120648</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A118" s="2">
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>簡靖洋</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A121" s="2" t="n">
         <v>1120649</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A119" s="2">
+      <c r="B121" s="4" t="inlineStr">
+        <is>
+          <t>羅宇祥</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A122" s="2" t="n">
         <v>1120650</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A120" s="2">
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>蘇彥魁</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A123" s="2" t="n">
         <v>1120651</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A121" s="2">
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>羅予晨</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A124" s="2" t="n">
         <v>1120653</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A122" s="2">
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>朱俊鴻</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A125" s="2" t="n">
         <v>1120654</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A123" s="2">
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t>彭唯宸</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A126" s="2" t="n">
         <v>1120655</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A124" s="2">
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>王若曦</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A127" s="2" t="n">
         <v>1120656</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A125" s="2">
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>温建宇</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A128" s="2" t="n">
         <v>1120657</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A126" s="2">
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t>詹濬齊</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A129" s="2" t="n">
         <v>1120658</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A127" s="2">
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t>張祐熏</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A130" s="2" t="n">
         <v>1120659</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A128" s="2">
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>林誠政</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A131" s="2" t="n">
         <v>1120661</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A129" s="2">
+      <c r="B131" s="4" t="inlineStr">
+        <is>
+          <t>張均綸</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A132" s="2" t="n">
         <v>1120662</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A130" s="2">
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t>郭于睿</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A133" s="2" t="n">
         <v>1120663</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A131" s="2">
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t>辜聖凱</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A134" s="2" t="n">
         <v>1120664</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A132" s="2">
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t>辛季霖</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A135" s="2" t="n">
         <v>1120665</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A133" s="2">
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>黃柏穎</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A136" s="2" t="n">
         <v>1120666</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A134" s="2">
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>賴禾昱</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A137" s="2" t="n">
         <v>1120667</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A135" s="2">
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>郭子綸</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A138" s="2" t="n">
         <v>1120668</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A136" s="2">
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>鍾立玫</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A139" s="2" t="n">
         <v>1120669</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A137" s="2">
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>許明源</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A140" s="2" t="n">
         <v>1120670</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A138" s="2">
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>蔡旻佑</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A141" s="2" t="n">
         <v>1120672</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A139" s="2">
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>顏翌如</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A142" s="2" t="n">
         <v>1120673</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A140" s="2">
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t>江昀珊</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="143" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A143" s="2" t="n">
         <v>1120674</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A141" s="2">
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t>鍾任杰</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A144" s="2" t="n">
         <v>1120701</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A142" s="2">
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>鄭惟仁</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A145" s="2" t="n">
         <v>1120711</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A143" s="2">
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t>黃敏慈</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="146" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A146" s="2" t="n">
         <v>1120720</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A144" s="2">
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t>莊垣增</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A147" s="2" t="n">
         <v>1120750</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A145" s="2">
+      <c r="B147" s="4" t="inlineStr">
+        <is>
+          <t>廖峻廷</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A148" s="2" t="n">
         <v>1120836</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A146" s="2">
+      <c r="B148" s="4" t="inlineStr">
+        <is>
+          <t>李柏諺</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A149" s="2" t="n">
         <v>1120921</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A147" s="2">
+      <c r="B149" s="4" t="inlineStr">
+        <is>
+          <t>林郁宸</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A150" s="2" t="n">
         <v>1121224</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A148" s="2">
+      <c r="B150" s="4" t="inlineStr">
+        <is>
+          <t>張軒齊</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A151" s="2" t="n">
         <v>1123704</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A149" s="2">
+      <c r="B151" s="4" t="inlineStr">
+        <is>
+          <t>蔡旻倫</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A152" s="2" t="n">
         <v>1123719</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A150" s="2">
+      <c r="B152" s="4" t="inlineStr">
+        <is>
+          <t>詹芷晴</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A153" s="2" t="n">
         <v>1123720</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A151" s="2">
+      <c r="B153" s="4" t="inlineStr">
+        <is>
+          <t>黃庭珊</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A154" s="2" t="n">
         <v>1123803</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" ht="16.5" thickBot="1">
-      <c r="A152" s="2">
+      <c r="B154" s="4" t="inlineStr">
+        <is>
+          <t>吳彥呈</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A155" s="2" t="n">
         <v>1123817</v>
       </c>
+      <c r="B155" s="4" t="inlineStr">
+        <is>
+          <t>傅康碩</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/score.xlsx
+++ b/score.xlsx
@@ -461,10 +461,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -478,11 +478,6 @@
           <t>齋藤伶朗</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="n">
@@ -493,11 +488,6 @@
           <t>松永佳憲</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="n">
@@ -510,7 +500,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -523,11 +513,6 @@
           <t>林昱豪</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="n">
@@ -540,7 +525,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -555,7 +540,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -568,6 +553,11 @@
           <t>林宥任</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A8" s="2" t="n">
@@ -588,6 +578,11 @@
           <t>吳楷奕</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A10" s="2" t="n">
@@ -598,6 +593,11 @@
           <t>石孟鑫</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A11" s="2" t="n">
@@ -608,8 +608,10 @@
           <t>林育暐</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>91</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1" thickBot="1">
@@ -623,7 +625,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -638,7 +640,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -653,7 +655,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -666,11 +668,6 @@
           <t>簡廷軒</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
     </row>
     <row r="16" ht="16.5" customHeight="1" thickBot="1">
       <c r="A16" s="2" t="n">
@@ -683,7 +680,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -696,11 +693,6 @@
           <t>李冠昌</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" thickBot="1">
       <c r="A18" s="2" t="n">
@@ -713,7 +705,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -728,7 +720,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -743,7 +735,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -756,6 +748,11 @@
           <t>許郁巧</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="16.5" customHeight="1" thickBot="1">
       <c r="A22" s="2" t="n">
@@ -768,7 +765,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -793,7 +790,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -808,7 +805,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -838,7 +835,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -851,6 +848,11 @@
           <t>余承晏</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="16.5" customHeight="1" thickBot="1">
       <c r="A29" s="2" t="n">
@@ -863,7 +865,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -876,6 +878,11 @@
           <t>陳妍儒</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="2" t="n">
@@ -903,7 +910,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -918,7 +925,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -943,7 +950,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -958,7 +965,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -988,7 +995,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1010,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1016,8 +1023,10 @@
           <t>楊子嫻</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>97</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1" thickBot="1">
@@ -1031,7 +1040,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1055,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1059,8 +1068,10 @@
           <t>黃若語</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>94</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1" thickBot="1">
@@ -1074,7 +1085,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1100,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1117,11 +1128,6 @@
           <t>周榆傑</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
     </row>
     <row r="48" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="2" t="n">
@@ -1149,7 +1155,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1162,11 +1168,6 @@
           <t>詹瀚捷</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
     </row>
     <row r="51" ht="16.5" customHeight="1" thickBot="1">
       <c r="A51" s="2" t="n">
@@ -1179,7 +1180,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1195,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1207,11 +1208,6 @@
           <t>陳信軒</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
     </row>
     <row r="54" ht="16.5" customHeight="1" thickBot="1">
       <c r="A54" s="2" t="n">
@@ -1224,7 +1220,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1235,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1250,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1265,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1280,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1295,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1310,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1335,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1350,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1367,8 +1363,10 @@
           <t>宋承龍</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>90</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
     </row>
     <row r="65" ht="16.5" customHeight="1" thickBot="1">
@@ -1382,7 +1380,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1395,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1410,8 +1408,10 @@
           <t>鍾瑋宸</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>93</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
       </c>
     </row>
     <row r="68" ht="16.5" customHeight="1" thickBot="1">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1513,8 +1513,10 @@
           <t>江峻亦</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>87</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
       </c>
     </row>
     <row r="75" ht="16.5" customHeight="1" thickBot="1">
@@ -1528,7 +1530,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1556,11 +1558,6 @@
           <t>呂孟澤</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
     </row>
     <row r="78" ht="16.5" customHeight="1" thickBot="1">
       <c r="A78" s="2" t="n">
@@ -1586,11 +1583,6 @@
           <t>江嘉元</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
     </row>
     <row r="80" ht="16.5" customHeight="1" thickBot="1">
       <c r="A80" s="2" t="n">
@@ -1601,11 +1593,6 @@
           <t>洪啟原</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
     </row>
     <row r="81" ht="16.5" customHeight="1" thickBot="1">
       <c r="A81" s="2" t="n">
@@ -1616,6 +1603,11 @@
           <t>劉杰璁</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="16.5" customHeight="1" thickBot="1">
       <c r="A82" s="2" t="n">
@@ -1628,7 +1620,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1641,8 +1633,10 @@
           <t>謝政宏</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>87</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
       </c>
     </row>
     <row r="84" ht="16.5" customHeight="1" thickBot="1">
@@ -1656,7 +1650,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1669,11 +1663,6 @@
           <t>康令澄</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
     </row>
     <row r="86" ht="16.5" customHeight="1" thickBot="1">
       <c r="A86" s="2" t="n">
@@ -1686,7 +1675,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1690,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1705,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1729,11 +1718,6 @@
           <t>葉虹翎</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
     </row>
     <row r="90" ht="16.5" customHeight="1" thickBot="1">
       <c r="A90" s="2" t="n">
@@ -1746,7 +1730,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1745,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1760,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1775,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1790,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1820,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1835,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1850,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1865,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1880,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1895,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1910,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1925,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1940,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1969,11 +1953,6 @@
           <t>陳惠芳</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
     </row>
     <row r="106" ht="16.5" customHeight="1" thickBot="1">
       <c r="A106" s="2" t="n">
@@ -1986,7 +1965,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2001,7 +1980,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -2016,7 +1995,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2010,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2025,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2040,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2055,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2070,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2085,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2100,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2115,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2130,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2145,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2160,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2175,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2190,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2205,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2220,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2254,11 +2233,6 @@
           <t>朱俊鴻</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
     </row>
     <row r="125" ht="16.5" customHeight="1" thickBot="1">
       <c r="A125" s="2" t="n">
@@ -2271,7 +2245,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2260,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2275,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2290,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -2329,8 +2303,10 @@
           <t>張祐熏</t>
         </is>
       </c>
-      <c r="C129" t="n">
-        <v>89</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
       </c>
     </row>
     <row r="130" ht="16.5" customHeight="1" thickBot="1">
@@ -2344,7 +2320,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2335,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2350,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2365,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2380,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2395,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2425,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2455,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2470,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -2507,11 +2483,6 @@
           <t>顏翌如</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
     </row>
     <row r="142" ht="16.5" customHeight="1" thickBot="1">
       <c r="A142" s="2" t="n">
@@ -2522,9 +2493,6 @@
           <t>江昀珊</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>86</v>
-      </c>
     </row>
     <row r="143" ht="16.5" customHeight="1" thickBot="1">
       <c r="A143" s="2" t="n">
@@ -2537,7 +2505,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2520,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2565,8 +2533,10 @@
           <t>黃敏慈</t>
         </is>
       </c>
-      <c r="C145" t="n">
-        <v>89</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
     </row>
     <row r="146" ht="16.5" customHeight="1" thickBot="1">
@@ -2580,7 +2550,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2565,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2580,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2610,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2635,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2665,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2678,8 @@
           <t>傅康碩</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="156"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/score.xlsx
+++ b/score.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -478,6 +478,11 @@
           <t>齋藤伶朗</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="n">
@@ -500,7 +505,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -513,6 +518,11 @@
           <t>林昱豪</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="n">
@@ -525,7 +535,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -540,7 +550,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -555,7 +565,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -578,11 +588,6 @@
           <t>吳楷奕</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
     </row>
     <row r="10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A10" s="2" t="n">
@@ -593,11 +598,6 @@
           <t>石孟鑫</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A11" s="2" t="n">
@@ -610,7 +610,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -668,6 +668,11 @@
           <t>簡廷軒</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="16.5" customHeight="1" thickBot="1">
       <c r="A16" s="2" t="n">
@@ -680,7 +685,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -693,6 +698,11 @@
           <t>李冠昌</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" thickBot="1">
       <c r="A18" s="2" t="n">
@@ -705,7 +715,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -720,7 +730,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -735,7 +745,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -750,7 +760,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -765,7 +775,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -778,6 +788,11 @@
           <t>李冠呈</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="16.5" customHeight="1" thickBot="1">
       <c r="A24" s="2" t="n">
@@ -790,7 +805,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -805,7 +820,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -820,7 +835,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -835,7 +850,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -850,7 +865,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -865,7 +880,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -880,7 +895,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>1120516</t>
         </is>
       </c>
     </row>
@@ -895,7 +910,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -910,7 +925,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -925,7 +940,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -938,6 +953,11 @@
           <t>陳世禾</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="16.5" customHeight="1" thickBot="1">
       <c r="A35" s="2" t="n">
@@ -950,7 +970,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -965,7 +985,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -980,7 +1000,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -995,7 +1015,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1008,11 +1028,6 @@
           <t>鍾維哲</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
     </row>
     <row r="40" ht="16.5" customHeight="1" thickBot="1">
       <c r="A40" s="2" t="n">
@@ -1040,7 +1055,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1100,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1115,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1113,11 +1128,6 @@
           <t>白少華</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
     </row>
     <row r="47" ht="16.5" customHeight="1" thickBot="1">
       <c r="A47" s="2" t="n">
@@ -1140,7 +1150,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1165,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1190,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1205,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1208,6 +1218,11 @@
           <t>陳信軒</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="16.5" customHeight="1" thickBot="1">
       <c r="A54" s="2" t="n">
@@ -1220,7 +1235,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1250,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1265,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1280,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1295,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1310,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1325,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1323,6 +1338,11 @@
           <t>邱翊承</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="16.5" customHeight="1" thickBot="1">
       <c r="A62" s="2" t="n">
@@ -1350,7 +1370,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1385,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1400,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1415,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1445,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1460,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1475,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1505,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1535,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1528,11 +1548,6 @@
           <t>張紫珊</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
     </row>
     <row r="76" ht="16.5" customHeight="1" thickBot="1">
       <c r="A76" s="2" t="n">
@@ -1558,6 +1573,11 @@
           <t>呂孟澤</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="16.5" customHeight="1" thickBot="1">
       <c r="A78" s="2" t="n">
@@ -1570,7 +1590,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1583,6 +1603,11 @@
           <t>江嘉元</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="16.5" customHeight="1" thickBot="1">
       <c r="A80" s="2" t="n">
@@ -1593,6 +1618,11 @@
           <t>洪啟原</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="16.5" customHeight="1" thickBot="1">
       <c r="A81" s="2" t="n">
@@ -1605,7 +1635,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1650,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1665,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1680,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1663,6 +1693,11 @@
           <t>康令澄</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="16.5" customHeight="1" thickBot="1">
       <c r="A86" s="2" t="n">
@@ -1675,7 +1710,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1725,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1718,6 +1753,11 @@
           <t>葉虹翎</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="16.5" customHeight="1" thickBot="1">
       <c r="A90" s="2" t="n">
@@ -1730,7 +1770,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1800,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1815,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1830,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1845,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1860,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1833,11 +1873,6 @@
           <t>林坊宸</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
     </row>
     <row r="98" ht="16.5" customHeight="1" thickBot="1">
       <c r="A98" s="2" t="n">
@@ -1850,7 +1885,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1900,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1915,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1930,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1945,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1960,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1975,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1953,6 +1988,11 @@
           <t>陳惠芳</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
     </row>
     <row r="106" ht="16.5" customHeight="1" thickBot="1">
       <c r="A106" s="2" t="n">
@@ -1965,7 +2005,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1980,7 +2020,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1995,7 +2035,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2050,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2065,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2080,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -2068,11 +2108,6 @@
           <t>陳立恩</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
     </row>
     <row r="114" ht="16.5" customHeight="1" thickBot="1">
       <c r="A114" s="2" t="n">
@@ -2130,7 +2165,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2180,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2195,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2190,7 +2225,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2255,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2233,6 +2268,11 @@
           <t>朱俊鴻</t>
         </is>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
     </row>
     <row r="125" ht="16.5" customHeight="1" thickBot="1">
       <c r="A125" s="2" t="n">
@@ -2245,7 +2285,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2300,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2315,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2330,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2345,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2360,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2375,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2390,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2405,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2420,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2435,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2450,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2465,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2438,11 +2478,6 @@
           <t>鍾立玫</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
     </row>
     <row r="139" ht="16.5" customHeight="1" thickBot="1">
       <c r="A139" s="2" t="n">
@@ -2453,11 +2488,6 @@
           <t>許明源</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
     </row>
     <row r="140" ht="16.5" customHeight="1" thickBot="1">
       <c r="A140" s="2" t="n">
@@ -2470,7 +2500,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -2483,6 +2513,11 @@
           <t>顏翌如</t>
         </is>
       </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
     </row>
     <row r="142" ht="16.5" customHeight="1" thickBot="1">
       <c r="A142" s="2" t="n">
@@ -2493,6 +2528,11 @@
           <t>江昀珊</t>
         </is>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
     </row>
     <row r="143" ht="16.5" customHeight="1" thickBot="1">
       <c r="A143" s="2" t="n">
@@ -2505,7 +2545,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2560,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2575,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2590,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2605,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2635,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2650,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2635,7 +2675,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2690,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2705,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
     </row>

--- a/score.xlsx
+++ b/score.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -493,6 +493,11 @@
           <t>松永佳憲</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="n">
@@ -505,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -520,7 +525,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -535,7 +540,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -550,7 +555,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -563,11 +568,6 @@
           <t>林宥任</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
     </row>
     <row r="8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A8" s="2" t="n">
@@ -588,6 +588,11 @@
           <t>吳楷奕</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A10" s="2" t="n">
@@ -610,7 +615,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -625,7 +630,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -640,7 +645,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -655,7 +660,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -668,11 +673,6 @@
           <t>簡廷軒</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
     </row>
     <row r="16" ht="16.5" customHeight="1" thickBot="1">
       <c r="A16" s="2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -758,11 +758,6 @@
           <t>許郁巧</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
     </row>
     <row r="22" ht="16.5" customHeight="1" thickBot="1">
       <c r="A22" s="2" t="n">
@@ -790,7 +785,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -803,11 +798,6 @@
           <t>朱祐麟</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
     </row>
     <row r="25" ht="16.5" customHeight="1" thickBot="1">
       <c r="A25" s="2" t="n">
@@ -820,7 +810,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -835,7 +825,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -850,7 +840,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -863,11 +853,6 @@
           <t>余承晏</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
     </row>
     <row r="29" ht="16.5" customHeight="1" thickBot="1">
       <c r="A29" s="2" t="n">
@@ -880,7 +865,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -895,7 +880,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1120516</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -910,7 +895,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -925,7 +910,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -940,7 +925,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -953,11 +938,6 @@
           <t>陳世禾</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
     </row>
     <row r="35" ht="16.5" customHeight="1" thickBot="1">
       <c r="A35" s="2" t="n">
@@ -998,11 +978,6 @@
           <t>吳諺則</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
     </row>
     <row r="38" ht="16.5" customHeight="1" thickBot="1">
       <c r="A38" s="2" t="n">
@@ -1015,7 +990,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1015,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1030,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1045,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1060,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1075,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1090,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -1138,6 +1113,11 @@
           <t>周榆傑</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="2" t="n">
@@ -1150,7 +1130,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1145,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1170,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1185,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1200,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1245,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1260,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1275,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1290,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1305,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1320,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>1120555</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1335,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1350,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1365,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1380,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1413,11 +1393,6 @@
           <t>吳秉融</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
     </row>
     <row r="67" ht="16.5" customHeight="1" thickBot="1">
       <c r="A67" s="2" t="n">
@@ -1443,11 +1418,6 @@
           <t>鄭維哲</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
     </row>
     <row r="69" ht="16.5" customHeight="1" thickBot="1">
       <c r="A69" s="2" t="n">
@@ -1460,7 +1430,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1445,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1460,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1475,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1490,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1505,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1548,6 +1518,11 @@
           <t>張紫珊</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="16.5" customHeight="1" thickBot="1">
       <c r="A76" s="2" t="n">
@@ -1560,7 +1535,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1550,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1565,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1580,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1595,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1610,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1625,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1655,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1693,11 +1668,6 @@
           <t>康令澄</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
     </row>
     <row r="86" ht="16.5" customHeight="1" thickBot="1">
       <c r="A86" s="2" t="n">
@@ -1710,7 +1680,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1695,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1710,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1725,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1740,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1755,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1770,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1785,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1815,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1830,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1873,6 +1843,11 @@
           <t>林坊宸</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="16.5" customHeight="1" thickBot="1">
       <c r="A98" s="2" t="n">
@@ -1885,7 +1860,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1890,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1905,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1935,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1950,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1965,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2010,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2025,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2040,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2055,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2070,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -2108,6 +2083,11 @@
           <t>陳立恩</t>
         </is>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
     </row>
     <row r="114" ht="16.5" customHeight="1" thickBot="1">
       <c r="A114" s="2" t="n">
@@ -2120,7 +2100,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2115,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2130,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2163,11 +2143,6 @@
           <t>項文誠</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
     </row>
     <row r="118" ht="16.5" customHeight="1" thickBot="1">
       <c r="A118" s="2" t="n">
@@ -2180,7 +2155,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2170,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2185,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2200,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2215,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2230,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2245,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2260,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2275,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2290,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2305,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2320,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2335,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2375,7 +2350,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2380,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2410,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2425,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2440,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -2478,6 +2453,11 @@
           <t>鍾立玫</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
     </row>
     <row r="139" ht="16.5" customHeight="1" thickBot="1">
       <c r="A139" s="2" t="n">
@@ -2488,6 +2468,11 @@
           <t>許明源</t>
         </is>
       </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
     </row>
     <row r="140" ht="16.5" customHeight="1" thickBot="1">
       <c r="A140" s="2" t="n">
@@ -2500,7 +2485,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2500,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2530,7 +2515,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2530,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2545,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2560,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2575,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2590,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2605,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -2635,7 +2620,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2635,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2660,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2675,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2690,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -2716,6 +2701,11 @@
       <c r="B155" s="4" t="inlineStr">
         <is>
           <t>傅康碩</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>93</t>
         </is>
       </c>
     </row>

--- a/score.xlsx
+++ b/score.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -478,11 +478,6 @@
           <t>齋藤伶朗</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="n">
@@ -493,11 +488,6 @@
           <t>松永佳憲</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="n">
@@ -523,11 +513,6 @@
           <t>林昱豪</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="n">
@@ -540,7 +525,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -555,7 +540,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -568,6 +553,11 @@
           <t>林宥任</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A8" s="2" t="n">
@@ -588,11 +578,6 @@
           <t>吳楷奕</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
     </row>
     <row r="10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A10" s="2" t="n">
@@ -603,6 +588,11 @@
           <t>石孟鑫</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" thickBot="1">
       <c r="A11" s="2" t="n">
@@ -615,7 +605,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -630,7 +620,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -645,7 +635,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -660,7 +650,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -673,6 +663,11 @@
           <t>簡廷軒</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="16.5" customHeight="1" thickBot="1">
       <c r="A16" s="2" t="n">
@@ -685,7 +680,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -700,7 +695,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -715,7 +710,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -730,7 +725,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -745,7 +740,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -758,6 +753,11 @@
           <t>許郁巧</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="16.5" customHeight="1" thickBot="1">
       <c r="A22" s="2" t="n">
@@ -770,7 +770,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -798,6 +798,11 @@
           <t>朱祐麟</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="16.5" customHeight="1" thickBot="1">
       <c r="A25" s="2" t="n">
@@ -810,7 +815,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -825,7 +830,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -840,7 +845,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -853,6 +858,11 @@
           <t>余承晏</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="16.5" customHeight="1" thickBot="1">
       <c r="A29" s="2" t="n">
@@ -865,7 +875,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -880,7 +890,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -895,7 +905,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -910,7 +920,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -925,7 +935,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -938,6 +948,11 @@
           <t>陳世禾</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="16.5" customHeight="1" thickBot="1">
       <c r="A35" s="2" t="n">
@@ -950,7 +965,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -965,7 +980,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -990,7 +1005,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1045,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1060,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1075,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1090,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1105,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1145,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1160,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1158,6 +1173,11 @@
           <t>詹瀚捷</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="16.5" customHeight="1" thickBot="1">
       <c r="A51" s="2" t="n">
@@ -1170,7 +1190,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1205,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1220,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1235,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1228,11 +1248,6 @@
           <t>羅冠傑</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
     </row>
     <row r="56" ht="16.5" customHeight="1" thickBot="1">
       <c r="A56" s="2" t="n">
@@ -1245,7 +1260,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1275,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1290,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1305,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1303,11 +1318,6 @@
           <t>黃嘉立</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
     </row>
     <row r="61" ht="16.5" customHeight="1" thickBot="1">
       <c r="A61" s="2" t="n">
@@ -1320,7 +1330,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1120555</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1345,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1360,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1375,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1390,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1393,6 +1403,11 @@
           <t>吳秉融</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="16.5" customHeight="1" thickBot="1">
       <c r="A67" s="2" t="n">
@@ -1430,7 +1445,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1460,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1475,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1473,11 +1488,6 @@
           <t>張少華</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
     </row>
     <row r="73" ht="16.5" customHeight="1" thickBot="1">
       <c r="A73" s="2" t="n">
@@ -1490,7 +1500,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1515,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1518,11 +1528,6 @@
           <t>張紫珊</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
     </row>
     <row r="76" ht="16.5" customHeight="1" thickBot="1">
       <c r="A76" s="2" t="n">
@@ -1535,7 +1540,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1570,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1585,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1600,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1615,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1630,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1645,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1660,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1668,6 +1673,11 @@
           <t>康令澄</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="16.5" customHeight="1" thickBot="1">
       <c r="A86" s="2" t="n">
@@ -1680,7 +1690,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1705,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1735,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1750,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1765,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1780,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1795,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1810,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1825,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1840,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1855,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1870,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1885,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1900,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1915,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1930,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1945,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1948,11 +1958,6 @@
           <t>周珊羽</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
     </row>
     <row r="105" ht="16.5" customHeight="1" thickBot="1">
       <c r="A105" s="2" t="n">
@@ -1963,11 +1968,6 @@
           <t>陳惠芳</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
     </row>
     <row r="106" ht="16.5" customHeight="1" thickBot="1">
       <c r="A106" s="2" t="n">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2023,11 +2023,6 @@
           <t>彭彥華</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
     </row>
     <row r="110" ht="16.5" customHeight="1" thickBot="1">
       <c r="A110" s="2" t="n">
@@ -2040,7 +2035,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2050,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2065,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2080,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2095,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2125,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -2143,6 +2138,11 @@
           <t>項文誠</t>
         </is>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
     </row>
     <row r="118" ht="16.5" customHeight="1" thickBot="1">
       <c r="A118" s="2" t="n">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2453,11 +2453,6 @@
           <t>鍾立玫</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
     </row>
     <row r="139" ht="16.5" customHeight="1" thickBot="1">
       <c r="A139" s="2" t="n">
@@ -2470,7 +2465,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2480,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2495,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2510,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2530,7 +2525,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2540,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2555,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2570,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -2590,7 +2585,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2600,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2615,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -2635,7 +2630,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2648,6 +2643,11 @@
           <t>蔡旻倫</t>
         </is>
       </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
     </row>
     <row r="152" ht="16.5" customHeight="1" thickBot="1">
       <c r="A152" s="2" t="n">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2705,11 +2705,10 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-    </row>
-    <row r="156"/>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/score.xlsx
+++ b/score.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -493,6 +493,11 @@
           <t>松永佳憲</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="n">
@@ -505,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -518,11 +523,6 @@
           <t>林昱豪</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -703,11 +703,6 @@
           <t>李冠昌</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" thickBot="1">
       <c r="A18" s="2" t="n">
@@ -720,7 +715,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -735,7 +730,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -750,7 +745,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -763,11 +758,6 @@
           <t>許郁巧</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
     </row>
     <row r="22" ht="16.5" customHeight="1" thickBot="1">
       <c r="A22" s="2" t="n">
@@ -780,7 +770,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -795,7 +785,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -810,7 +800,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -825,7 +815,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -855,7 +845,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -870,7 +860,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -900,7 +890,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -915,7 +905,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -930,7 +920,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -945,7 +935,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -960,7 +950,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -975,7 +965,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -990,7 +980,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1005,7 +995,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1010,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1025,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1055,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1070,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1130,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1145,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1168,6 +1158,11 @@
           <t>陳威廷</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="16.5" customHeight="1" thickBot="1">
       <c r="A49" s="2" t="n">
@@ -1180,7 +1175,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1190,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1205,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1220,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1250,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1265,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1295,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1310,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1325,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1370,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1385,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1433,11 +1428,6 @@
           <t>吳秉融</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
     </row>
     <row r="67" ht="16.5" customHeight="1" thickBot="1">
       <c r="A67" s="2" t="n">
@@ -1450,7 +1440,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1455,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1485,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1500,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1515,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1530,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1568,11 +1558,6 @@
           <t>張紫珊</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
     </row>
     <row r="76" ht="16.5" customHeight="1" thickBot="1">
       <c r="A76" s="2" t="n">
@@ -1585,7 +1570,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1600,7 +1585,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1600,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1630,7 +1615,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1630,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -1658,11 +1643,6 @@
           <t>劉杰璁</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
     </row>
     <row r="82" ht="16.5" customHeight="1" thickBot="1">
       <c r="A82" s="2" t="n">
@@ -1675,7 +1655,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1670,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1703,6 +1683,11 @@
           <t>湯斯淇</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="16.5" customHeight="1" thickBot="1">
       <c r="A85" s="2" t="n">
@@ -1715,7 +1700,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1728,6 +1713,11 @@
           <t>魯永喆</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="16.5" customHeight="1" thickBot="1">
       <c r="A87" s="2" t="n">
@@ -1740,7 +1730,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1753,11 +1743,6 @@
           <t>林至賢</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
     </row>
     <row r="89" ht="16.5" customHeight="1" thickBot="1">
       <c r="A89" s="2" t="n">
@@ -1768,6 +1753,11 @@
           <t>葉虹翎</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="16.5" customHeight="1" thickBot="1">
       <c r="A90" s="2" t="n">
@@ -1780,7 +1770,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1795,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1810,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1825,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1840,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1873,6 +1863,11 @@
           <t>林坊宸</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="16.5" customHeight="1" thickBot="1">
       <c r="A98" s="2" t="n">
@@ -1883,6 +1878,11 @@
           <t>劉育廷</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="16.5" customHeight="1" thickBot="1">
       <c r="A99" s="2" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2008,6 +2008,11 @@
           <t>張景謙</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
     </row>
     <row r="108" ht="16.5" customHeight="1" thickBot="1">
       <c r="A108" s="2" t="n">
@@ -2020,7 +2025,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2040,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2055,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2070,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2085,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2100,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2115,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2130,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2145,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2153,6 +2158,11 @@
           <t>項文誠</t>
         </is>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
     </row>
     <row r="118" ht="16.5" customHeight="1" thickBot="1">
       <c r="A118" s="2" t="n">
@@ -2165,7 +2175,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2190,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2205,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2220,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>1120649</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2235,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2238,6 +2248,11 @@
           <t>羅予晨</t>
         </is>
       </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
     </row>
     <row r="124" ht="16.5" customHeight="1" thickBot="1">
       <c r="A124" s="2" t="n">
@@ -2250,7 +2265,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2280,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2295,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2310,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2325,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2340,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2355,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2385,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2400,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2415,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2430,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2445,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2443,11 +2458,6 @@
           <t>郭子綸</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
     </row>
     <row r="138" ht="16.5" customHeight="1" thickBot="1">
       <c r="A138" s="2" t="n">
@@ -2458,6 +2468,11 @@
           <t>鍾立玫</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
     </row>
     <row r="139" ht="16.5" customHeight="1" thickBot="1">
       <c r="A139" s="2" t="n">
@@ -2480,7 +2495,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2510,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2525,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2540,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -2540,7 +2555,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2570,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2600,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2615,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2630,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -2630,7 +2645,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2660,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2675,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2690,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2705,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2720,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
     </row>

--- a/score.xlsx
+++ b/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70640\Documents\GitHub\tzulun-s-corner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF223E0C-216E-4EC5-AE6F-A3DF8A3D93CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD944B26-6C9B-471C-89B2-30574153CE42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,296 +20,299 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="175">
   <si>
     <t>齋藤伶朗</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>松永佳憲</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>莊秉樺</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>林昱豪</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>戴敬倫</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>陳菲娜</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>林宥任</t>
+  </si>
+  <si>
+    <t>王上恩</t>
+  </si>
+  <si>
+    <t>吳楷奕</t>
+  </si>
+  <si>
+    <t>石孟鑫</t>
+  </si>
+  <si>
+    <t>林育暐</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>顏光佑</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>嚴聿祥</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>彭宥崴</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>簡廷軒</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>許慶霖</t>
+  </si>
+  <si>
+    <t>李冠昌</t>
+  </si>
+  <si>
+    <t>鍾秉祐</t>
+  </si>
+  <si>
+    <t>廖冠宇</t>
+  </si>
+  <si>
+    <t>李詠潔</t>
+  </si>
+  <si>
+    <t>許郁巧</t>
+  </si>
+  <si>
+    <t>林瑋宸</t>
+  </si>
+  <si>
+    <t>李冠呈</t>
+  </si>
+  <si>
+    <t>朱祐麟</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>何少勤</t>
+  </si>
+  <si>
+    <t>林均諺</t>
+  </si>
+  <si>
+    <t>彭韋霖</t>
+  </si>
+  <si>
+    <t>余承晏</t>
+  </si>
+  <si>
+    <t>李睿文</t>
+  </si>
+  <si>
+    <t>陳妍儒</t>
+  </si>
+  <si>
+    <t>楊凱毅</t>
+  </si>
+  <si>
+    <t>金昀陞</t>
+  </si>
+  <si>
+    <t>何怡儒</t>
+  </si>
+  <si>
+    <t>陳世禾</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>林語柔</t>
+  </si>
+  <si>
+    <t>林俊价</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>吳諺則</t>
+  </si>
+  <si>
+    <t>王苡倢</t>
+  </si>
+  <si>
+    <t>鍾維哲</t>
+  </si>
+  <si>
+    <t>楊子嫻</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>王政閔</t>
+  </si>
+  <si>
+    <t>周秉融</t>
+  </si>
+  <si>
+    <t>黃若語</t>
+  </si>
+  <si>
+    <t>康捷評</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>殷啓譽</t>
+  </si>
+  <si>
+    <t>白少華</t>
+  </si>
+  <si>
+    <t>周榆傑</t>
+  </si>
+  <si>
+    <t>陳威廷</t>
+  </si>
+  <si>
+    <t>周祐辰</t>
+  </si>
+  <si>
+    <t>詹瀚捷</t>
+  </si>
+  <si>
+    <t>謝孟煒</t>
+  </si>
+  <si>
+    <t>林柏翰</t>
+  </si>
+  <si>
+    <t>陳信軒</t>
+  </si>
+  <si>
+    <t>洪宗佑</t>
+  </si>
+  <si>
+    <t>羅冠傑</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>高鳴鴻</t>
+  </si>
+  <si>
+    <t>劉晉成</t>
+  </si>
+  <si>
+    <t>尤柏勛</t>
+  </si>
+  <si>
+    <t>陳楷鈞</t>
+  </si>
+  <si>
+    <t>黃嘉立</t>
+  </si>
+  <si>
+    <t>邱翊承</t>
+  </si>
+  <si>
+    <t>高知瑋</t>
+  </si>
+  <si>
+    <t>陳品妤</t>
+  </si>
+  <si>
+    <t>宋承龍</t>
+  </si>
+  <si>
+    <t>楊壹峰</t>
+  </si>
+  <si>
+    <t>吳秉融</t>
+  </si>
+  <si>
     <t>86</t>
   </si>
   <si>
-    <t>松永佳憲</t>
-  </si>
-  <si>
-    <t>莊秉樺</t>
-  </si>
-  <si>
-    <t>林昱豪</t>
-  </si>
-  <si>
-    <t>戴敬倫</t>
+    <t>鍾瑋宸</t>
+  </si>
+  <si>
+    <t>鄭維哲</t>
+  </si>
+  <si>
+    <t>吳鑑航</t>
+  </si>
+  <si>
+    <t>邱　舷</t>
+  </si>
+  <si>
+    <t>陳逸宇</t>
+  </si>
+  <si>
+    <t>張少華</t>
+  </si>
+  <si>
+    <t>彭冠瑀</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>江峻亦</t>
+  </si>
+  <si>
+    <t>張紫珊</t>
+  </si>
+  <si>
+    <t>林冠緯</t>
+  </si>
+  <si>
+    <t>呂孟澤</t>
   </si>
   <si>
     <t>94</t>
   </si>
   <si>
-    <t>陳菲娜</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>林宥任</t>
-  </si>
-  <si>
-    <t>王上恩</t>
-  </si>
-  <si>
-    <t>吳楷奕</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>石孟鑫</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>林育暐</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>顏光佑</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>嚴聿祥</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>彭宥崴</t>
-  </si>
-  <si>
-    <t>簡廷軒</t>
-  </si>
-  <si>
-    <t>許慶霖</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>李冠昌</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>鍾秉祐</t>
-  </si>
-  <si>
-    <t>廖冠宇</t>
-  </si>
-  <si>
-    <t>李詠潔</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>許郁巧</t>
-  </si>
-  <si>
-    <t>林瑋宸</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>李冠呈</t>
-  </si>
-  <si>
-    <t>朱祐麟</t>
-  </si>
-  <si>
-    <t>何少勤</t>
-  </si>
-  <si>
-    <t>林均諺</t>
-  </si>
-  <si>
-    <t>彭韋霖</t>
-  </si>
-  <si>
-    <t>余承晏</t>
-  </si>
-  <si>
-    <t>李睿文</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>陳妍儒</t>
-  </si>
-  <si>
-    <t>楊凱毅</t>
-  </si>
-  <si>
-    <t>金昀陞</t>
-  </si>
-  <si>
-    <t>何怡儒</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>陳世禾</t>
-  </si>
-  <si>
-    <t>林語柔</t>
-  </si>
-  <si>
-    <t>林俊价</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>吳諺則</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>王苡倢</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>鍾維哲</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>楊子嫻</t>
-  </si>
-  <si>
-    <t>王政閔</t>
-  </si>
-  <si>
-    <t>周秉融</t>
-  </si>
-  <si>
-    <t>黃若語</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>康捷評</t>
-  </si>
-  <si>
-    <t>殷啓譽</t>
-  </si>
-  <si>
-    <t>白少華</t>
-  </si>
-  <si>
-    <t>周榆傑</t>
-  </si>
-  <si>
-    <t>陳威廷</t>
-  </si>
-  <si>
-    <t>周祐辰</t>
-  </si>
-  <si>
-    <t>詹瀚捷</t>
-  </si>
-  <si>
-    <t>謝孟煒</t>
-  </si>
-  <si>
-    <t>林柏翰</t>
-  </si>
-  <si>
-    <t>陳信軒</t>
-  </si>
-  <si>
-    <t>洪宗佑</t>
-  </si>
-  <si>
-    <t>羅冠傑</t>
-  </si>
-  <si>
-    <t>高鳴鴻</t>
-  </si>
-  <si>
-    <t>劉晉成</t>
-  </si>
-  <si>
-    <t>尤柏勛</t>
-  </si>
-  <si>
-    <t>陳楷鈞</t>
-  </si>
-  <si>
-    <t>黃嘉立</t>
-  </si>
-  <si>
-    <t>邱翊承</t>
-  </si>
-  <si>
-    <t>高知瑋</t>
-  </si>
-  <si>
-    <t>陳品妤</t>
-  </si>
-  <si>
-    <t>宋承龍</t>
-  </si>
-  <si>
-    <t>楊壹峰</t>
-  </si>
-  <si>
-    <t>吳秉融</t>
-  </si>
-  <si>
-    <t>鍾瑋宸</t>
-  </si>
-  <si>
-    <t>鄭維哲</t>
-  </si>
-  <si>
-    <t>吳鑑航</t>
-  </si>
-  <si>
-    <t>邱　舷</t>
-  </si>
-  <si>
-    <t>陳逸宇</t>
-  </si>
-  <si>
-    <t>張少華</t>
-  </si>
-  <si>
-    <t>彭冠瑀</t>
-  </si>
-  <si>
-    <t>江峻亦</t>
-  </si>
-  <si>
-    <t>張紫珊</t>
-  </si>
-  <si>
-    <t>林冠緯</t>
-  </si>
-  <si>
-    <t>呂孟澤</t>
-  </si>
-  <si>
     <t>王洪偉</t>
   </si>
   <si>
@@ -326,9 +329,6 @@
   </si>
   <si>
     <t>謝政宏</t>
-  </si>
-  <si>
-    <t>95</t>
   </si>
   <si>
     <t>湯斯淇</t>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C33" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C81" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -959,16 +959,19 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2">
         <v>1100572</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -976,7 +979,10 @@
         <v>1100643</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -984,10 +990,10 @@
         <v>1103713</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -995,10 +1001,10 @@
         <v>1103745</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1006,7 +1012,7 @@
         <v>1110523</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1014,7 +1020,7 @@
         <v>1110673</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1022,10 +1028,7 @@
         <v>1113716</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1033,10 +1036,7 @@
         <v>1113717</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1044,10 +1044,10 @@
         <v>1113719</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1055,10 +1055,10 @@
         <v>1120343</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1066,10 +1066,10 @@
         <v>1120362</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1077,10 +1077,10 @@
         <v>1120363</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1088,10 +1088,10 @@
         <v>1120364</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1099,10 +1099,10 @@
         <v>1120403</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1110,10 +1110,10 @@
         <v>1120463</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1121,10 +1121,7 @@
         <v>1120501</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1132,10 +1129,10 @@
         <v>1120502</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1143,9 +1140,6 @@
         <v>1120504</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1156,8 +1150,8 @@
       <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21">
-        <v>84</v>
+      <c r="C21" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1168,7 +1162,7 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1176,10 +1170,7 @@
         <v>1120507</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1187,10 +1178,10 @@
         <v>1120508</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>35</v>
-      </c>
-      <c r="C24">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1201,7 +1192,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1212,7 +1203,7 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1223,7 +1214,7 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1234,7 +1225,7 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1244,19 +1235,16 @@
       <c r="B29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A30" s="2">
         <v>1120516</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1264,10 +1252,10 @@
         <v>1120517</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1275,10 +1263,10 @@
         <v>1120518</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1286,10 +1274,10 @@
         <v>1120520</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1297,7 +1285,10 @@
         <v>1120522</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1305,10 +1296,10 @@
         <v>1120524</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1316,10 +1307,10 @@
         <v>1120525</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
         <v>49</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1327,10 +1318,10 @@
         <v>1120526</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1338,10 +1329,7 @@
         <v>1120527</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1349,10 +1337,10 @@
         <v>1120528</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1360,10 +1348,10 @@
         <v>1120530</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1371,10 +1359,10 @@
         <v>1120531</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41">
-        <v>88</v>
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1382,10 +1370,10 @@
         <v>1120532</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1393,10 +1381,10 @@
         <v>1120533</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1404,10 +1392,10 @@
         <v>1120534</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1415,10 +1403,7 @@
         <v>1120537</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1426,10 +1411,10 @@
         <v>1120538</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1437,10 +1422,10 @@
         <v>1120540</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1448,10 +1433,10 @@
         <v>1120541</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1459,10 +1444,10 @@
         <v>1120542</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1470,10 +1455,10 @@
         <v>1120544</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50">
-        <v>82</v>
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1481,10 +1466,10 @@
         <v>1120545</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1492,7 +1477,10 @@
         <v>1120546</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1500,10 +1488,10 @@
         <v>1120547</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1511,10 +1499,10 @@
         <v>1120548</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1522,10 +1510,10 @@
         <v>1120549</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1533,10 +1521,10 @@
         <v>1120550</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1544,10 +1532,10 @@
         <v>1120551</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1555,10 +1543,10 @@
         <v>1120552</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1566,10 +1554,7 @@
         <v>1120553</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1577,10 +1562,10 @@
         <v>1120554</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
+        <v>76</v>
+      </c>
+      <c r="C60">
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1588,10 +1573,10 @@
         <v>1120555</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1599,10 +1584,10 @@
         <v>1120556</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1610,10 +1595,10 @@
         <v>1120557</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1621,10 +1606,10 @@
         <v>1120558</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1632,10 +1617,10 @@
         <v>1120559</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1643,7 +1628,10 @@
         <v>1120560</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="C66" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1651,7 +1639,10 @@
         <v>1120561</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C67" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1659,10 +1650,10 @@
         <v>1120562</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1670,10 +1661,10 @@
         <v>1120563</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1681,10 +1672,10 @@
         <v>1120564</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1692,10 +1683,10 @@
         <v>1120565</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1703,10 +1694,10 @@
         <v>1120566</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1714,10 +1705,10 @@
         <v>1120567</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" t="s">
         <v>91</v>
-      </c>
-      <c r="C73" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1728,7 +1719,7 @@
         <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1746,9 +1737,6 @@
       <c r="B76" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C76" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="77" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A77" s="2">
@@ -1758,7 +1746,7 @@
         <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1766,10 +1754,10 @@
         <v>1120573</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1777,10 +1765,10 @@
         <v>1120574</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1788,10 +1776,7 @@
         <v>1120575</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1799,7 +1784,10 @@
         <v>1120602</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1807,10 +1795,10 @@
         <v>1120603</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C82" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1818,10 +1806,10 @@
         <v>1120604</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1832,7 +1820,7 @@
         <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1843,7 +1831,7 @@
         <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1853,6 +1841,9 @@
       <c r="B86" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="87" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A87" s="2">
@@ -1862,7 +1853,7 @@
         <v>106</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1873,7 +1864,7 @@
         <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1883,6 +1874,9 @@
       <c r="B89" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="C89" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A90" s="2">
@@ -1892,7 +1886,7 @@
         <v>109</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1902,9 +1896,6 @@
       <c r="B91" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C91" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="92" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A92" s="2">
@@ -1914,7 +1905,7 @@
         <v>111</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1925,7 +1916,7 @@
         <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1936,7 +1927,7 @@
         <v>113</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1947,7 +1938,7 @@
         <v>114</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1965,6 +1956,9 @@
       <c r="B97" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A98" s="2">
@@ -1973,8 +1967,8 @@
       <c r="B98" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C98" t="s">
-        <v>33</v>
+      <c r="C98">
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1984,8 +1978,8 @@
       <c r="B99" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C99" t="s">
-        <v>50</v>
+      <c r="C99">
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -1996,7 +1990,7 @@
         <v>119</v>
       </c>
       <c r="C100" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2007,7 +2001,7 @@
         <v>120</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2017,6 +2011,9 @@
       <c r="B102" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="C102" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A103" s="2">
@@ -2026,7 +2023,7 @@
         <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2036,8 +2033,8 @@
       <c r="B104" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C104" t="s">
-        <v>16</v>
+      <c r="C104">
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2047,9 +2044,6 @@
       <c r="B105" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C105" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="106" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A106" s="2">
@@ -2059,7 +2053,7 @@
         <v>125</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2070,7 +2064,7 @@
         <v>126</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2081,7 +2075,7 @@
         <v>127</v>
       </c>
       <c r="C108" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2102,9 +2096,6 @@
       <c r="B110" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C110" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="111" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A111" s="2">
@@ -2114,7 +2105,7 @@
         <v>130</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2125,7 +2116,7 @@
         <v>131</v>
       </c>
       <c r="C112" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2136,7 +2127,7 @@
         <v>132</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2147,7 +2138,7 @@
         <v>133</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2158,7 +2149,7 @@
         <v>134</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2169,7 +2160,7 @@
         <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2180,7 +2171,7 @@
         <v>136</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2190,6 +2181,9 @@
       <c r="B118" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="C118" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="119" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A119" s="2">
@@ -2199,7 +2193,7 @@
         <v>138</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2210,7 +2204,7 @@
         <v>139</v>
       </c>
       <c r="C120" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2221,7 +2215,7 @@
         <v>140</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2232,7 +2226,7 @@
         <v>141</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2243,7 +2237,7 @@
         <v>142</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2253,9 +2247,6 @@
       <c r="B124" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C124">
-        <v>81</v>
-      </c>
     </row>
     <row r="125" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A125" s="2">
@@ -2264,6 +2255,9 @@
       <c r="B125" s="4" t="s">
         <v>144</v>
       </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="126" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A126" s="2">
@@ -2273,7 +2267,7 @@
         <v>145</v>
       </c>
       <c r="C126" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2284,7 +2278,7 @@
         <v>146</v>
       </c>
       <c r="C127" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2295,7 +2289,7 @@
         <v>147</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2306,7 +2300,7 @@
         <v>148</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2317,7 +2311,7 @@
         <v>149</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2328,7 +2322,7 @@
         <v>150</v>
       </c>
       <c r="C131" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2339,7 +2333,7 @@
         <v>151</v>
       </c>
       <c r="C132" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2349,9 +2343,6 @@
       <c r="B133" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C133" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="134" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A134" s="2">
@@ -2361,7 +2352,7 @@
         <v>153</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2372,7 +2363,7 @@
         <v>154</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2383,7 +2374,7 @@
         <v>155</v>
       </c>
       <c r="C136" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2393,6 +2384,9 @@
       <c r="B137" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="C137" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="138" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A138" s="2">
@@ -2402,7 +2396,7 @@
         <v>157</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2413,7 +2407,7 @@
         <v>158</v>
       </c>
       <c r="C139" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2424,7 +2418,7 @@
         <v>159</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2435,7 +2429,7 @@
         <v>160</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2445,6 +2439,9 @@
       <c r="B142" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="143" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A143" s="2">
@@ -2454,7 +2451,7 @@
         <v>162</v>
       </c>
       <c r="C143" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2465,7 +2462,7 @@
         <v>163</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2476,7 +2473,7 @@
         <v>164</v>
       </c>
       <c r="C145" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2487,7 +2484,7 @@
         <v>165</v>
       </c>
       <c r="C146" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2498,7 +2495,7 @@
         <v>166</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2509,7 +2506,7 @@
         <v>167</v>
       </c>
       <c r="C148" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2520,7 +2517,7 @@
         <v>168</v>
       </c>
       <c r="C149" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2531,7 +2528,7 @@
         <v>169</v>
       </c>
       <c r="C150" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2542,7 +2539,7 @@
         <v>170</v>
       </c>
       <c r="C151" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2553,7 +2550,7 @@
         <v>171</v>
       </c>
       <c r="C152" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2564,7 +2561,7 @@
         <v>172</v>
       </c>
       <c r="C153" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2574,8 +2571,8 @@
       <c r="B154" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C154" t="s">
-        <v>30</v>
+      <c r="C154">
+        <v>80</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
@@ -2586,7 +2583,7 @@
         <v>174</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/score.xlsx
+++ b/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70640\Documents\GitHub\tzulun-s-corner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356B248E-69D0-4ADF-A790-2E75F644DCE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368227B5-2850-4C62-BA9F-3A31519D10EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>齋藤伶朗</t>
   </si>
   <si>
-    <t>86</t>
-  </si>
-  <si>
     <t>松永佳憲</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
     <t>莊秉樺</t>
   </si>
   <si>
@@ -43,9 +37,6 @@
     <t>戴敬倫</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>陳菲娜</t>
   </si>
   <si>
@@ -67,9 +58,6 @@
     <t>顏光佑</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
     <t>嚴聿祥</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
     <t>鍾秉祐</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>廖冠宇</t>
   </si>
   <si>
@@ -103,21 +88,12 @@
     <t>林瑋宸</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
     <t>李冠呈</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
     <t>朱祐麟</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
     <t>何少勤</t>
   </si>
   <si>
@@ -139,15 +115,9 @@
     <t>楊凱毅</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>金昀陞</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
     <t>何怡儒</t>
   </si>
   <si>
@@ -169,24 +139,15 @@
     <t>鍾維哲</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>楊子嫻</t>
   </si>
   <si>
     <t>王政閔</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
     <t>周秉融</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
     <t>黃若語</t>
   </si>
   <si>
@@ -205,24 +166,15 @@
     <t>陳威廷</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>周祐辰</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>詹瀚捷</t>
   </si>
   <si>
     <t>謝孟煒</t>
   </si>
   <si>
-    <t>84</t>
-  </si>
-  <si>
     <t>林柏翰</t>
   </si>
   <si>
@@ -238,9 +190,6 @@
     <t>高鳴鴻</t>
   </si>
   <si>
-    <t>92</t>
-  </si>
-  <si>
     <t>劉晉成</t>
   </si>
   <si>
@@ -376,9 +325,6 @@
     <t>簡宇婕</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>周羿帆</t>
   </si>
   <si>
@@ -406,9 +352,6 @@
     <t>洪嬿濡</t>
   </si>
   <si>
-    <t>95</t>
-  </si>
-  <si>
     <t>劉全訓</t>
   </si>
   <si>
@@ -416,9 +359,6 @@
   </si>
   <si>
     <t>陳立恩</t>
-  </si>
-  <si>
-    <t>87</t>
   </si>
   <si>
     <t>呂奕璇</t>
@@ -933,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:B155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
       <selection activeCell="C111" sqref="C1:C1048576"/>
@@ -941,1568 +881,1244 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A1" s="1">
         <v>1100451</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="2">
         <v>1100453</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2">
         <v>1100572</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="2">
         <v>1100643</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="2">
         <v>1103713</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A6" s="2">
         <v>1103745</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A7" s="2">
         <v>1110523</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A8" s="2">
         <v>1110673</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A9" s="2">
         <v>1113716</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A10" s="2">
         <v>1113717</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A11" s="2">
         <v>1113719</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A12" s="2">
         <v>1120343</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A13" s="2">
         <v>1120362</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A14" s="2">
         <v>1120363</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A15" s="2">
         <v>1120364</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A16" s="2">
         <v>1120403</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A17" s="2">
         <v>1120463</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>1120501</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A19" s="2">
         <v>1120502</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A20" s="2">
         <v>1120504</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A21" s="2">
         <v>1120505</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A22" s="2">
         <v>1120506</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A23" s="2">
         <v>1120507</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A24" s="2">
         <v>1120508</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A25" s="2">
         <v>1120509</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A26" s="2">
         <v>1120510</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A27" s="2">
         <v>1120512</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A28" s="2">
         <v>1120513</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A29" s="2">
         <v>1120515</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A30" s="2">
         <v>1120516</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    <row r="31" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="2">
         <v>1120517</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A32" s="2">
         <v>1120518</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A33" s="2">
         <v>1120520</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A34" s="2">
         <v>1120522</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A35" s="2">
         <v>1120524</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A36" s="2">
         <v>1120525</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A37" s="2">
         <v>1120526</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A38" s="2">
         <v>1120527</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A39" s="2">
         <v>1120528</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A40" s="2">
         <v>1120530</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="2">
         <v>1120531</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A42" s="2">
         <v>1120532</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A43" s="2">
         <v>1120533</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A44" s="2">
         <v>1120534</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A45" s="2">
         <v>1120537</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A46" s="2">
         <v>1120538</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A47" s="2">
         <v>1120540</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A48" s="2">
         <v>1120541</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A49" s="2">
         <v>1120542</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A50" s="2">
         <v>1120544</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A51" s="2">
         <v>1120545</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A52" s="2">
         <v>1120546</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A53" s="2">
         <v>1120547</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A54" s="2">
         <v>1120548</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A55" s="2">
         <v>1120549</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+    <row r="56" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A56" s="2">
         <v>1120550</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A57" s="2">
         <v>1120551</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A58" s="2">
         <v>1120552</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A59" s="2">
         <v>1120553</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A60" s="2">
         <v>1120554</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A61" s="2">
         <v>1120555</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A62" s="2">
         <v>1120556</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A63" s="2">
         <v>1120557</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A64" s="2">
         <v>1120558</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A65" s="2">
         <v>1120559</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A66" s="2">
         <v>1120560</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A67" s="2">
         <v>1120561</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A68" s="2">
         <v>1120562</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A69" s="2">
         <v>1120563</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A70" s="2">
         <v>1120564</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A71" s="2">
         <v>1120565</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A72" s="2">
         <v>1120566</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A73" s="2">
         <v>1120567</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A74" s="2">
         <v>1120569</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A75" s="2">
         <v>1120570</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A76" s="2">
         <v>1120571</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A77" s="2">
         <v>1120572</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A78" s="2">
         <v>1120573</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A79" s="2">
         <v>1120574</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A80" s="2">
         <v>1120575</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A81" s="2">
         <v>1120602</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A82" s="2">
         <v>1120603</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A83" s="2">
         <v>1120604</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A84" s="2">
         <v>1120605</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A85" s="2">
         <v>1120606</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A86" s="2">
         <v>1120607</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A87" s="2">
         <v>1120608</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C87" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A88" s="2">
         <v>1120611</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A89" s="2">
         <v>1120613</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A90" s="2">
         <v>1120615</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A91" s="2">
         <v>1120616</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A92" s="2">
         <v>1120618</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A93" s="2">
         <v>1120619</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A94" s="2">
         <v>1120620</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A95" s="2">
         <v>1120621</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C95" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A96" s="2">
         <v>1120622</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A97" s="2">
         <v>1120623</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A98" s="2">
         <v>1120625</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C98" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A99" s="2">
         <v>1120627</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C99" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A100" s="2">
         <v>1120628</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C100" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A101" s="2">
         <v>1120629</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A102" s="2">
         <v>1120630</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A103" s="2">
         <v>1120631</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C103" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A104" s="2">
         <v>1120632</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C104" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A105" s="2">
         <v>1120633</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A106" s="2">
         <v>1120634</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C106" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A107" s="2">
         <v>1120635</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A108" s="2">
         <v>1120636</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A109" s="2">
         <v>1120637</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A110" s="2">
         <v>1120638</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A111" s="2">
         <v>1120639</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C111" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A112" s="2">
         <v>1120640</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A113" s="2">
         <v>1120641</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A114" s="2">
         <v>1120642</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C114" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A115" s="2">
         <v>1120643</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C115" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A116" s="2">
         <v>1120644</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C116" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A117" s="2">
         <v>1120645</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C117" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A118" s="2">
         <v>1120646</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A119" s="2">
         <v>1120647</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C119" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A120" s="2">
         <v>1120648</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A121" s="2">
         <v>1120649</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A122" s="2">
         <v>1120650</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C122" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A123" s="2">
         <v>1120651</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A124" s="2">
         <v>1120653</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C124" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A125" s="2">
         <v>1120654</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C125" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A126" s="2">
         <v>1120655</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C126" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A127" s="2">
         <v>1120656</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C127" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A128" s="2">
         <v>1120657</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C128">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A129" s="2">
         <v>1120658</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C129" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A130" s="2">
         <v>1120659</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A131" s="2">
         <v>1120661</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C131" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A132" s="2">
         <v>1120662</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C132" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A133" s="2">
         <v>1120663</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C133" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A134" s="2">
         <v>1120664</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C134" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A135" s="2">
         <v>1120665</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C135" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A136" s="2">
         <v>1120666</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C136" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A137" s="2">
         <v>1120667</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C137" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A138" s="2">
         <v>1120668</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A139" s="2">
         <v>1120669</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A140" s="2">
         <v>1120670</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C140" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A141" s="2">
         <v>1120672</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C141" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A142" s="2">
         <v>1120673</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C142" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A143" s="2">
         <v>1120674</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A144" s="2">
         <v>1120701</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C144" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A145" s="2">
         <v>1120711</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C145" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A146" s="2">
         <v>1120720</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C146" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A147" s="2">
         <v>1120750</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C147" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A148" s="2">
         <v>1120836</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C148" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A149" s="2">
         <v>1120921</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A150" s="2">
         <v>1121224</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A151" s="2">
         <v>1123704</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A152" s="2">
         <v>1123719</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C152" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A153" s="2">
         <v>1123720</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C153" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A154" s="2">
         <v>1123803</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C154" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A155" s="2">
         <v>1123817</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
